--- a/raw_data/2019/DATABASE E-GOVERNMENT.xlsx
+++ b/raw_data/2019/DATABASE E-GOVERNMENT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elino\OneDrive\Escritorio\RESEARCH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/e-gov-index/raw_data/2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1172" documentId="6_{4A70EAC4-C3B4-4950-91FC-923EC42DAEBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{35C8E800-3C8F-4FB4-BE22-BE9F4D41997C}"/>
+  <xr:revisionPtr revIDLastSave="1172" documentId="6_{4A70EAC4-C3B4-4950-91FC-923EC42DAEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35C8E800-3C8F-4FB4-BE22-BE9F4D41997C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -1245,7 +1245,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -1806,7 +1806,7 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1815,9 +1815,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="23" fillId="33" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="23" fillId="33" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="34" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1832,72 +1832,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="35" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="36" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="5" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="6" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="35" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="5" fillId="34" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="35" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="34" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="2" fillId="36" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="36" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="2" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="46">
-    <cellStyle name="20% - Énfasis1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="21" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="24" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="27" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="30" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="33" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="22" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="25" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="28" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="31" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="34" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="21" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="24" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="27" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="30" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="33" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="22" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="25" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis1 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="60% - Énfasis2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="60% - Énfasis3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="60% - Énfasis4 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="60% - Énfasis5 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="60% - Énfasis6 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Bueno" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="20" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="23" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="26" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="29" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="32" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Millares [0]" xfId="45" builtinId="6"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="26" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="29" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="32" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="45" builtinId="6"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="Normal 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Normal 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Notas 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2181,31 +2181,31 @@
   <dimension ref="A1:BC347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ1" sqref="A1:AQ1"/>
+      <selection pane="bottomRight" activeCell="S104" sqref="S104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" style="4"/>
-    <col min="3" max="3" width="15.28515625" style="4" customWidth="1"/>
-    <col min="4" max="20" width="14.42578125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="8" customWidth="1"/>
-    <col min="22" max="25" width="14.42578125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="42.140625" style="8" customWidth="1"/>
+    <col min="1" max="2" width="14.44140625" style="4"/>
+    <col min="3" max="3" width="15.33203125" style="4" customWidth="1"/>
+    <col min="4" max="20" width="14.44140625" style="4" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" style="8" customWidth="1"/>
+    <col min="22" max="25" width="14.44140625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="42.109375" style="8" customWidth="1"/>
     <col min="27" max="27" width="22" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15" style="4" customWidth="1"/>
-    <col min="29" max="29" width="18.140625" style="4" customWidth="1"/>
-    <col min="30" max="30" width="43.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.7109375" style="4" customWidth="1"/>
-    <col min="32" max="35" width="16.7109375" style="8" customWidth="1"/>
-    <col min="36" max="36" width="14.42578125" style="4" customWidth="1"/>
-    <col min="37" max="48" width="14.42578125" style="4"/>
+    <col min="29" max="29" width="18.109375" style="4" customWidth="1"/>
+    <col min="30" max="30" width="43.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.6640625" style="4" customWidth="1"/>
+    <col min="32" max="35" width="16.6640625" style="8" customWidth="1"/>
+    <col min="36" max="36" width="14.44140625" style="4" customWidth="1"/>
+    <col min="37" max="48" width="14.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
@@ -2341,7 +2341,7 @@
       <c r="AU1" s="5"/>
       <c r="AV1" s="5"/>
     </row>
-    <row r="2" spans="1:55" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="AU2" s="4"/>
       <c r="AV2" s="4"/>
     </row>
-    <row r="3" spans="1:55" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
     </row>
-    <row r="4" spans="1:55" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
@@ -2749,7 +2749,7 @@
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
     </row>
-    <row r="5" spans="1:55" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -2885,7 +2885,7 @@
       <c r="AU5" s="4"/>
       <c r="AV5" s="4"/>
     </row>
-    <row r="6" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>45</v>
       </c>
@@ -3022,7 +3022,7 @@
       <c r="BB6" s="3"/>
       <c r="BC6" s="3"/>
     </row>
-    <row r="7" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
@@ -3159,7 +3159,7 @@
       <c r="BB7" s="3"/>
       <c r="BC7" s="3"/>
     </row>
-    <row r="8" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>45</v>
       </c>
@@ -3296,7 +3296,7 @@
       <c r="BB8" s="3"/>
       <c r="BC8" s="3"/>
     </row>
-    <row r="9" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>45</v>
       </c>
@@ -3433,7 +3433,7 @@
       <c r="BB9" s="3"/>
       <c r="BC9" s="3"/>
     </row>
-    <row r="10" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>45</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="BB10" s="3"/>
       <c r="BC10" s="3"/>
     </row>
-    <row r="11" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>45</v>
       </c>
@@ -3707,7 +3707,7 @@
       <c r="BB11" s="3"/>
       <c r="BC11" s="3"/>
     </row>
-    <row r="12" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>45</v>
       </c>
@@ -3844,7 +3844,7 @@
       <c r="BB12" s="3"/>
       <c r="BC12" s="3"/>
     </row>
-    <row r="13" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>53</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>264504</v>
       </c>
     </row>
-    <row r="14" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>53</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>125030</v>
       </c>
     </row>
-    <row r="15" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>53</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>6607</v>
       </c>
     </row>
-    <row r="16" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>53</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>9058</v>
       </c>
     </row>
-    <row r="17" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>53</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="18" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>53</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>5903</v>
       </c>
     </row>
-    <row r="19" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>53</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="20" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>53</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>10133</v>
       </c>
     </row>
-    <row r="21" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>53</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>21912</v>
       </c>
     </row>
-    <row r="22" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>62</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>4786</v>
       </c>
     </row>
-    <row r="23" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>62</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>13921</v>
       </c>
     </row>
-    <row r="24" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>62</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>11818</v>
       </c>
     </row>
-    <row r="25" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>62</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>117897</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>62</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>13938</v>
       </c>
     </row>
-    <row r="27" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>62</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>5682</v>
       </c>
     </row>
-    <row r="28" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>62</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>8030</v>
       </c>
     </row>
-    <row r="29" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>62</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>12577</v>
       </c>
     </row>
-    <row r="30" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>62</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>44821</v>
       </c>
     </row>
-    <row r="31" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>75</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>11040</v>
       </c>
     </row>
-    <row r="32" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>75</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>8778</v>
       </c>
     </row>
-    <row r="33" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>75</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>12406</v>
       </c>
     </row>
-    <row r="34" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>75</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>156212</v>
       </c>
     </row>
-    <row r="35" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>75</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>27019</v>
       </c>
     </row>
-    <row r="36" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>75</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>4162</v>
       </c>
     </row>
-    <row r="37" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>75</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>160944</v>
       </c>
     </row>
-    <row r="38" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>75</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>17434</v>
       </c>
     </row>
-    <row r="39" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>75</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>27066</v>
       </c>
     </row>
-    <row r="40" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>75</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>88386</v>
       </c>
     </row>
-    <row r="41" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>75</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="42" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>75</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>10130</v>
       </c>
     </row>
-    <row r="43" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>75</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>4739</v>
       </c>
     </row>
-    <row r="44" spans="1:48" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:48" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>75</v>
       </c>
@@ -8041,7 +8041,7 @@
       <c r="AU44" s="20"/>
       <c r="AV44" s="20"/>
     </row>
-    <row r="45" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>75</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>22062</v>
       </c>
     </row>
-    <row r="46" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>121</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>11810</v>
       </c>
     </row>
-    <row r="47" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>121</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>17830</v>
       </c>
     </row>
-    <row r="48" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>121</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>44286</v>
       </c>
     </row>
-    <row r="49" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>121</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="50" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>121</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>17294</v>
       </c>
     </row>
-    <row r="51" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>121</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>21299</v>
       </c>
     </row>
-    <row r="52" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>121</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>11716</v>
       </c>
     </row>
-    <row r="53" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>121</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>35636</v>
       </c>
     </row>
-    <row r="54" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>121</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>11681</v>
       </c>
     </row>
-    <row r="55" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>121</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>9295</v>
       </c>
     </row>
-    <row r="56" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>121</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>14810</v>
       </c>
     </row>
-    <row r="57" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>121</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>5302</v>
       </c>
     </row>
-    <row r="58" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>121</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="59" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>121</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>14333</v>
       </c>
     </row>
-    <row r="60" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>121</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>29355</v>
       </c>
     </row>
-    <row r="61" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>121</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>37014</v>
       </c>
     </row>
-    <row r="62" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>121</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>20097</v>
       </c>
     </row>
-    <row r="63" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>121</v>
       </c>
@@ -10530,7 +10530,7 @@
         <v>54875</v>
       </c>
     </row>
-    <row r="64" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>121</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>19211</v>
       </c>
     </row>
-    <row r="65" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>121</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>15216</v>
       </c>
     </row>
-    <row r="66" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>121</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>6197</v>
       </c>
     </row>
-    <row r="67" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>121</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>5305</v>
       </c>
     </row>
-    <row r="68" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>121</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>9119</v>
       </c>
     </row>
-    <row r="69" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>121</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>14026</v>
       </c>
     </row>
-    <row r="70" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>121</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>13290</v>
       </c>
     </row>
-    <row r="71" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>121</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>73240</v>
       </c>
     </row>
-    <row r="72" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>121</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>129100</v>
       </c>
     </row>
-    <row r="73" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>121</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>22754</v>
       </c>
     </row>
-    <row r="74" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>121</v>
       </c>
@@ -11971,7 +11971,7 @@
         <v>8675</v>
       </c>
     </row>
-    <row r="75" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>121</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>77270</v>
       </c>
     </row>
-    <row r="76" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>121</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>14204</v>
       </c>
     </row>
-    <row r="77" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>121</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>58965</v>
       </c>
     </row>
-    <row r="78" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>121</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>11567</v>
       </c>
     </row>
-    <row r="79" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>121</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>10455</v>
       </c>
     </row>
-    <row r="80" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>121</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>285301</v>
       </c>
     </row>
-    <row r="81" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>121</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>93284</v>
       </c>
     </row>
-    <row r="82" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>121</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>295845</v>
       </c>
     </row>
-    <row r="83" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>121</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>7356</v>
       </c>
     </row>
-    <row r="84" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>160</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>5776</v>
       </c>
     </row>
-    <row r="85" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>160</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>67229</v>
       </c>
     </row>
-    <row r="86" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>160</v>
       </c>
@@ -13543,7 +13543,7 @@
         <v>21303</v>
       </c>
     </row>
-    <row r="87" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>160</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>67804</v>
       </c>
     </row>
-    <row r="88" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>160</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>116335</v>
       </c>
     </row>
-    <row r="89" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>160</v>
       </c>
@@ -13936,7 +13936,7 @@
         <v>79070</v>
       </c>
     </row>
-    <row r="90" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>160</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>120866</v>
       </c>
     </row>
-    <row r="91" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>160</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>24246</v>
       </c>
     </row>
-    <row r="92" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>160</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>139338</v>
       </c>
     </row>
-    <row r="93" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>160</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>26123</v>
       </c>
     </row>
-    <row r="94" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>160</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>126168</v>
       </c>
     </row>
-    <row r="95" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>160</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>68039</v>
       </c>
     </row>
-    <row r="96" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>160</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>78356</v>
       </c>
     </row>
-    <row r="97" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>160</v>
       </c>
@@ -14984,7 +14984,7 @@
         <v>25766</v>
       </c>
     </row>
-    <row r="98" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>160</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>83686</v>
       </c>
     </row>
-    <row r="99" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>160</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>301998</v>
       </c>
     </row>
-    <row r="100" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>160</v>
       </c>
@@ -15377,7 +15377,7 @@
         <v>105302</v>
       </c>
     </row>
-    <row r="101" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>160</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>49911</v>
       </c>
     </row>
-    <row r="102" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>160</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>137423</v>
       </c>
     </row>
-    <row r="103" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>160</v>
       </c>
@@ -15770,7 +15770,7 @@
         <v>89772</v>
       </c>
     </row>
-    <row r="104" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>160</v>
       </c>
@@ -15901,7 +15901,7 @@
         <v>251198</v>
       </c>
     </row>
-    <row r="105" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>160</v>
       </c>
@@ -16032,7 +16032,7 @@
         <v>74117</v>
       </c>
     </row>
-    <row r="106" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>160</v>
       </c>
@@ -16163,7 +16163,7 @@
         <v>93275</v>
       </c>
     </row>
-    <row r="107" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>160</v>
       </c>
@@ -16294,7 +16294,7 @@
         <v>90439</v>
       </c>
     </row>
-    <row r="108" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>160</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>99498</v>
       </c>
     </row>
-    <row r="109" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>160</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>376042</v>
       </c>
     </row>
-    <row r="110" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>160</v>
       </c>
@@ -16687,7 +16687,7 @@
         <v>10440</v>
       </c>
     </row>
-    <row r="111" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>160</v>
       </c>
@@ -16818,7 +16818,7 @@
         <v>92804</v>
       </c>
     </row>
-    <row r="112" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>160</v>
       </c>
@@ -16949,7 +16949,7 @@
         <v>185175</v>
       </c>
     </row>
-    <row r="113" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>160</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>39404</v>
       </c>
     </row>
-    <row r="114" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>160</v>
       </c>
@@ -17211,7 +17211,7 @@
         <v>49054</v>
       </c>
     </row>
-    <row r="115" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>160</v>
       </c>
@@ -17342,7 +17342,7 @@
         <v>95614</v>
       </c>
     </row>
-    <row r="116" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>160</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>68024</v>
       </c>
     </row>
-    <row r="117" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>160</v>
       </c>
@@ -17604,7 +17604,7 @@
         <v>185846</v>
       </c>
     </row>
-    <row r="118" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>160</v>
       </c>
@@ -17735,7 +17735,7 @@
         <v>20881</v>
       </c>
     </row>
-    <row r="119" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>160</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>164311</v>
       </c>
     </row>
-    <row r="120" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>160</v>
       </c>
@@ -17997,7 +17997,7 @@
         <v>163680</v>
       </c>
     </row>
-    <row r="121" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>160</v>
       </c>
@@ -18128,7 +18128,7 @@
         <v>382776</v>
       </c>
     </row>
-    <row r="122" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>160</v>
       </c>
@@ -18259,7 +18259,7 @@
         <v>128414</v>
       </c>
     </row>
-    <row r="123" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>160</v>
       </c>
@@ -18390,7 +18390,7 @@
         <v>101796</v>
       </c>
     </row>
-    <row r="124" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>160</v>
       </c>
@@ -18521,7 +18521,7 @@
         <v>141758</v>
       </c>
     </row>
-    <row r="125" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>160</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>115189</v>
       </c>
     </row>
-    <row r="126" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>160</v>
       </c>
@@ -18783,7 +18783,7 @@
         <v>221169</v>
       </c>
     </row>
-    <row r="127" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>160</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>83527</v>
       </c>
     </row>
-    <row r="128" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>160</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>14860</v>
       </c>
     </row>
-    <row r="129" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>160</v>
       </c>
@@ -19176,7 +19176,7 @@
         <v>99938</v>
       </c>
     </row>
-    <row r="130" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>160</v>
       </c>
@@ -19312,7 +19312,7 @@
       <c r="AU130" s="4"/>
       <c r="AV130" s="4"/>
     </row>
-    <row r="131" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>160</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>82960</v>
       </c>
     </row>
-    <row r="132" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>160</v>
       </c>
@@ -19574,7 +19574,7 @@
         <v>312750</v>
       </c>
     </row>
-    <row r="133" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>160</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>55214</v>
       </c>
     </row>
-    <row r="134" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>160</v>
       </c>
@@ -19836,7 +19836,7 @@
         <v>13799</v>
       </c>
     </row>
-    <row r="135" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>160</v>
       </c>
@@ -19967,7 +19967,7 @@
         <v>85041</v>
       </c>
     </row>
-    <row r="136" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>126</v>
       </c>
@@ -20098,7 +20098,7 @@
         <v>13377</v>
       </c>
     </row>
-    <row r="137" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>126</v>
       </c>
@@ -20229,7 +20229,7 @@
         <v>29249</v>
       </c>
     </row>
-    <row r="138" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>126</v>
       </c>
@@ -20360,7 +20360,7 @@
         <v>10799</v>
       </c>
     </row>
-    <row r="139" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>126</v>
       </c>
@@ -20491,7 +20491,7 @@
         <v>6809</v>
       </c>
     </row>
-    <row r="140" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>126</v>
       </c>
@@ -20622,7 +20622,7 @@
         <v>15198</v>
       </c>
     </row>
-    <row r="141" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>126</v>
       </c>
@@ -20753,7 +20753,7 @@
         <v>17461</v>
       </c>
     </row>
-    <row r="142" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>126</v>
       </c>
@@ -20884,7 +20884,7 @@
         <v>25837</v>
       </c>
     </row>
-    <row r="143" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>126</v>
       </c>
@@ -21015,7 +21015,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="144" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>126</v>
       </c>
@@ -21146,7 +21146,7 @@
         <v>19230</v>
       </c>
     </row>
-    <row r="145" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>126</v>
       </c>
@@ -21277,7 +21277,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="146" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>126</v>
       </c>
@@ -21408,7 +21408,7 @@
         <v>6554</v>
       </c>
     </row>
-    <row r="147" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>126</v>
       </c>
@@ -21539,7 +21539,7 @@
         <v>32912</v>
       </c>
     </row>
-    <row r="148" spans="1:48" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:48" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
         <v>126</v>
       </c>
@@ -21675,7 +21675,7 @@
       <c r="AU148" s="20"/>
       <c r="AV148" s="20"/>
     </row>
-    <row r="149" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>126</v>
       </c>
@@ -21806,7 +21806,7 @@
         <v>6570</v>
       </c>
     </row>
-    <row r="150" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>126</v>
       </c>
@@ -21937,7 +21937,7 @@
         <v>19782</v>
       </c>
     </row>
-    <row r="151" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>126</v>
       </c>
@@ -22068,7 +22068,7 @@
         <v>14681</v>
       </c>
     </row>
-    <row r="152" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>126</v>
       </c>
@@ -22199,7 +22199,7 @@
         <v>5779</v>
       </c>
     </row>
-    <row r="153" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>126</v>
       </c>
@@ -22330,7 +22330,7 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="154" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>126</v>
       </c>
@@ -22461,7 +22461,7 @@
         <v>10094</v>
       </c>
     </row>
-    <row r="155" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>126</v>
       </c>
@@ -22592,7 +22592,7 @@
         <v>6587</v>
       </c>
     </row>
-    <row r="156" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
         <v>126</v>
       </c>
@@ -22723,7 +22723,7 @@
         <v>9766</v>
       </c>
     </row>
-    <row r="157" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>126</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>12468</v>
       </c>
     </row>
-    <row r="158" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>126</v>
       </c>
@@ -22985,7 +22985,7 @@
         <v>16114</v>
       </c>
     </row>
-    <row r="159" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>126</v>
       </c>
@@ -23116,7 +23116,7 @@
         <v>13345</v>
       </c>
     </row>
-    <row r="160" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>126</v>
       </c>
@@ -23247,7 +23247,7 @@
         <v>7930</v>
       </c>
     </row>
-    <row r="161" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>126</v>
       </c>
@@ -23378,7 +23378,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="162" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>126</v>
       </c>
@@ -23509,7 +23509,7 @@
         <v>11916</v>
       </c>
     </row>
-    <row r="163" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>126</v>
       </c>
@@ -23640,7 +23640,7 @@
         <v>189939</v>
       </c>
     </row>
-    <row r="164" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>126</v>
       </c>
@@ -23771,7 +23771,7 @@
         <v>47074</v>
       </c>
     </row>
-    <row r="165" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>126</v>
       </c>
@@ -23902,7 +23902,7 @@
         <v>21771</v>
       </c>
     </row>
-    <row r="166" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
         <v>126</v>
       </c>
@@ -24033,7 +24033,7 @@
         <v>60962</v>
       </c>
     </row>
-    <row r="167" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>126</v>
       </c>
@@ -24164,7 +24164,7 @@
         <v>30272</v>
       </c>
     </row>
-    <row r="168" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>126</v>
       </c>
@@ -24295,7 +24295,7 @@
         <v>38951</v>
       </c>
     </row>
-    <row r="169" spans="1:48" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:48" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="19" t="s">
         <v>212</v>
       </c>
@@ -24431,7 +24431,7 @@
       <c r="AU169" s="20"/>
       <c r="AV169" s="20"/>
     </row>
-    <row r="170" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>212</v>
       </c>
@@ -24567,7 +24567,7 @@
       <c r="AU170" s="4"/>
       <c r="AV170" s="4"/>
     </row>
-    <row r="171" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>212</v>
       </c>
@@ -24703,7 +24703,7 @@
       <c r="AU171" s="4"/>
       <c r="AV171" s="4"/>
     </row>
-    <row r="172" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>212</v>
       </c>
@@ -24839,7 +24839,7 @@
       <c r="AU172" s="4"/>
       <c r="AV172" s="4"/>
     </row>
-    <row r="173" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>212</v>
       </c>
@@ -24975,7 +24975,7 @@
       <c r="AU173" s="4"/>
       <c r="AV173" s="4"/>
     </row>
-    <row r="174" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>212</v>
       </c>
@@ -25111,7 +25111,7 @@
       <c r="AU174" s="4"/>
       <c r="AV174" s="4"/>
     </row>
-    <row r="175" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>212</v>
       </c>
@@ -25247,7 +25247,7 @@
       <c r="AU175" s="4"/>
       <c r="AV175" s="4"/>
     </row>
-    <row r="176" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>212</v>
       </c>
@@ -25383,7 +25383,7 @@
       <c r="AU176" s="4"/>
       <c r="AV176" s="4"/>
     </row>
-    <row r="177" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>212</v>
       </c>
@@ -25519,7 +25519,7 @@
       <c r="AU177" s="4"/>
       <c r="AV177" s="4"/>
     </row>
-    <row r="178" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
         <v>212</v>
       </c>
@@ -25655,7 +25655,7 @@
       <c r="AU178" s="4"/>
       <c r="AV178" s="4"/>
     </row>
-    <row r="179" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>212</v>
       </c>
@@ -25791,7 +25791,7 @@
       <c r="AU179" s="4"/>
       <c r="AV179" s="4"/>
     </row>
-    <row r="180" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>212</v>
       </c>
@@ -25927,7 +25927,7 @@
       <c r="AU180" s="4"/>
       <c r="AV180" s="4"/>
     </row>
-    <row r="181" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>212</v>
       </c>
@@ -26063,7 +26063,7 @@
       <c r="AU181" s="4"/>
       <c r="AV181" s="4"/>
     </row>
-    <row r="182" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
         <v>212</v>
       </c>
@@ -26199,7 +26199,7 @@
       <c r="AU182" s="4"/>
       <c r="AV182" s="4"/>
     </row>
-    <row r="183" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
         <v>212</v>
       </c>
@@ -26335,7 +26335,7 @@
       <c r="AU183" s="4"/>
       <c r="AV183" s="4"/>
     </row>
-    <row r="184" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
         <v>212</v>
       </c>
@@ -26471,7 +26471,7 @@
       <c r="AU184" s="4"/>
       <c r="AV184" s="4"/>
     </row>
-    <row r="185" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
         <v>212</v>
       </c>
@@ -26607,7 +26607,7 @@
       <c r="AU185" s="4"/>
       <c r="AV185" s="4"/>
     </row>
-    <row r="186" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
         <v>212</v>
       </c>
@@ -26743,7 +26743,7 @@
       <c r="AU186" s="4"/>
       <c r="AV186" s="4"/>
     </row>
-    <row r="187" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
         <v>212</v>
       </c>
@@ -26879,7 +26879,7 @@
       <c r="AU187" s="4"/>
       <c r="AV187" s="4"/>
     </row>
-    <row r="188" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>212</v>
       </c>
@@ -27015,7 +27015,7 @@
       <c r="AU188" s="4"/>
       <c r="AV188" s="4"/>
     </row>
-    <row r="189" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
         <v>212</v>
       </c>
@@ -27151,7 +27151,7 @@
       <c r="AU189" s="4"/>
       <c r="AV189" s="4"/>
     </row>
-    <row r="190" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
         <v>212</v>
       </c>
@@ -27287,7 +27287,7 @@
       <c r="AU190" s="4"/>
       <c r="AV190" s="4"/>
     </row>
-    <row r="191" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>212</v>
       </c>
@@ -27423,7 +27423,7 @@
       <c r="AU191" s="4"/>
       <c r="AV191" s="4"/>
     </row>
-    <row r="192" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>212</v>
       </c>
@@ -27559,7 +27559,7 @@
       <c r="AU192" s="4"/>
       <c r="AV192" s="4"/>
     </row>
-    <row r="193" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>212</v>
       </c>
@@ -27695,7 +27695,7 @@
       <c r="AU193" s="4"/>
       <c r="AV193" s="4"/>
     </row>
-    <row r="194" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
         <v>212</v>
       </c>
@@ -27831,7 +27831,7 @@
       <c r="AU194" s="4"/>
       <c r="AV194" s="4"/>
     </row>
-    <row r="195" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>212</v>
       </c>
@@ -27967,7 +27967,7 @@
       <c r="AU195" s="4"/>
       <c r="AV195" s="4"/>
     </row>
-    <row r="196" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>212</v>
       </c>
@@ -28103,7 +28103,7 @@
       <c r="AU196" s="4"/>
       <c r="AV196" s="4"/>
     </row>
-    <row r="197" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
         <v>212</v>
       </c>
@@ -28239,7 +28239,7 @@
       <c r="AU197" s="4"/>
       <c r="AV197" s="4"/>
     </row>
-    <row r="198" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:48" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
         <v>212</v>
       </c>
@@ -28375,7 +28375,7 @@
       <c r="AU198" s="4"/>
       <c r="AV198" s="4"/>
     </row>
-    <row r="199" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>242</v>
       </c>
@@ -28506,7 +28506,7 @@
         <v>5290</v>
       </c>
     </row>
-    <row r="200" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
         <v>242</v>
       </c>
@@ -28637,7 +28637,7 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="201" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
         <v>242</v>
       </c>
@@ -28768,7 +28768,7 @@
         <v>29925</v>
       </c>
     </row>
-    <row r="202" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
         <v>242</v>
       </c>
@@ -28899,7 +28899,7 @@
         <v>20161</v>
       </c>
     </row>
-    <row r="203" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
         <v>242</v>
       </c>
@@ -29030,7 +29030,7 @@
         <v>24289</v>
       </c>
     </row>
-    <row r="204" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
         <v>242</v>
       </c>
@@ -29161,7 +29161,7 @@
         <v>28748</v>
       </c>
     </row>
-    <row r="205" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
         <v>242</v>
       </c>
@@ -29292,7 +29292,7 @@
         <v>64745</v>
       </c>
     </row>
-    <row r="206" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
         <v>242</v>
       </c>
@@ -29423,7 +29423,7 @@
         <v>148780</v>
       </c>
     </row>
-    <row r="207" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
         <v>242</v>
       </c>
@@ -29554,7 +29554,7 @@
         <v>19940</v>
       </c>
     </row>
-    <row r="208" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>242</v>
       </c>
@@ -29685,7 +29685,7 @@
         <v>5647</v>
       </c>
     </row>
-    <row r="209" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>242</v>
       </c>
@@ -29816,7 +29816,7 @@
         <v>14930</v>
       </c>
     </row>
-    <row r="210" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
         <v>242</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>20925</v>
       </c>
     </row>
-    <row r="211" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
         <v>242</v>
       </c>
@@ -30078,7 +30078,7 @@
         <v>199158</v>
       </c>
     </row>
-    <row r="212" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>242</v>
       </c>
@@ -30209,7 +30209,7 @@
         <v>5834</v>
       </c>
     </row>
-    <row r="213" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>242</v>
       </c>
@@ -30340,7 +30340,7 @@
         <v>86427</v>
       </c>
     </row>
-    <row r="214" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
         <v>242</v>
       </c>
@@ -30471,7 +30471,7 @@
         <v>30333</v>
       </c>
     </row>
-    <row r="215" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>242</v>
       </c>
@@ -30602,7 +30602,7 @@
         <v>12165</v>
       </c>
     </row>
-    <row r="216" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
         <v>242</v>
       </c>
@@ -30733,7 +30733,7 @@
         <v>10199</v>
       </c>
     </row>
-    <row r="217" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
         <v>242</v>
       </c>
@@ -30864,7 +30864,7 @@
         <v>76227</v>
       </c>
     </row>
-    <row r="218" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
         <v>242</v>
       </c>
@@ -30995,7 +30995,7 @@
         <v>19339</v>
       </c>
     </row>
-    <row r="219" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
         <v>242</v>
       </c>
@@ -31126,7 +31126,7 @@
         <v>21252</v>
       </c>
     </row>
-    <row r="220" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
         <v>242</v>
       </c>
@@ -31257,7 +31257,7 @@
         <v>21627</v>
       </c>
     </row>
-    <row r="221" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
         <v>242</v>
       </c>
@@ -31388,7 +31388,7 @@
         <v>17286</v>
       </c>
     </row>
-    <row r="222" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
         <v>242</v>
       </c>
@@ -31519,7 +31519,7 @@
         <v>156194</v>
       </c>
     </row>
-    <row r="223" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
         <v>242</v>
       </c>
@@ -31650,7 +31650,7 @@
         <v>48093</v>
       </c>
     </row>
-    <row r="224" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
         <v>242</v>
       </c>
@@ -31781,7 +31781,7 @@
         <v>26264</v>
       </c>
     </row>
-    <row r="225" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>242</v>
       </c>
@@ -31912,7 +31912,7 @@
         <v>24219</v>
       </c>
     </row>
-    <row r="226" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
         <v>242</v>
       </c>
@@ -32043,7 +32043,7 @@
         <v>8640</v>
       </c>
     </row>
-    <row r="227" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
         <v>242</v>
       </c>
@@ -32174,7 +32174,7 @@
         <v>6049</v>
       </c>
     </row>
-    <row r="228" spans="1:48" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:48" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="19" t="s">
         <v>242</v>
       </c>
@@ -32310,7 +32310,7 @@
       <c r="AU228" s="20"/>
       <c r="AV228" s="20"/>
     </row>
-    <row r="229" spans="1:48" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:48" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="19" t="s">
         <v>242</v>
       </c>
@@ -32446,7 +32446,7 @@
       <c r="AU229" s="20"/>
       <c r="AV229" s="20"/>
     </row>
-    <row r="230" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
         <v>242</v>
       </c>
@@ -32577,7 +32577,7 @@
         <v>41331</v>
       </c>
     </row>
-    <row r="231" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
         <v>242</v>
       </c>
@@ -32708,7 +32708,7 @@
         <v>10716</v>
       </c>
     </row>
-    <row r="232" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
         <v>242</v>
       </c>
@@ -32839,7 +32839,7 @@
         <v>5818</v>
       </c>
     </row>
-    <row r="233" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
         <v>242</v>
       </c>
@@ -32970,7 +32970,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="234" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
         <v>242</v>
       </c>
@@ -33101,7 +33101,7 @@
         <v>9132</v>
       </c>
     </row>
-    <row r="235" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
         <v>242</v>
       </c>
@@ -33232,7 +33232,7 @@
         <v>14834</v>
       </c>
     </row>
-    <row r="236" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
         <v>242</v>
       </c>
@@ -33363,7 +33363,7 @@
         <v>10738</v>
       </c>
     </row>
-    <row r="237" spans="1:48" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:48" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="29" t="s">
         <v>242</v>
       </c>
@@ -33497,7 +33497,7 @@
       <c r="AU237" s="29"/>
       <c r="AV237" s="29"/>
     </row>
-    <row r="238" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
         <v>242</v>
       </c>
@@ -33628,7 +33628,7 @@
         <v>46396</v>
       </c>
     </row>
-    <row r="239" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>242</v>
       </c>
@@ -33759,7 +33759,7 @@
         <v>4633</v>
       </c>
     </row>
-    <row r="240" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
         <v>242</v>
       </c>
@@ -33890,7 +33890,7 @@
         <v>13950</v>
       </c>
     </row>
-    <row r="241" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
         <v>242</v>
       </c>
@@ -34021,7 +34021,7 @@
         <v>10618</v>
       </c>
     </row>
-    <row r="242" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
         <v>242</v>
       </c>
@@ -34152,7 +34152,7 @@
         <v>80495</v>
       </c>
     </row>
-    <row r="243" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
         <v>242</v>
       </c>
@@ -34283,7 +34283,7 @@
         <v>4511</v>
       </c>
     </row>
-    <row r="244" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
         <v>242</v>
       </c>
@@ -34414,7 +34414,7 @@
         <v>13008</v>
       </c>
     </row>
-    <row r="245" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
         <v>242</v>
       </c>
@@ -34545,7 +34545,7 @@
         <v>12313</v>
       </c>
     </row>
-    <row r="246" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
         <v>242</v>
       </c>
@@ -34676,7 +34676,7 @@
         <v>133151</v>
       </c>
     </row>
-    <row r="247" spans="1:48" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:48" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="19" t="s">
         <v>242</v>
       </c>
@@ -34812,7 +34812,7 @@
       <c r="AU247" s="20"/>
       <c r="AV247" s="20"/>
     </row>
-    <row r="248" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
         <v>242</v>
       </c>
@@ -34943,7 +34943,7 @@
         <v>49053</v>
       </c>
     </row>
-    <row r="249" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
         <v>242</v>
       </c>
@@ -35074,7 +35074,7 @@
         <v>6098</v>
       </c>
     </row>
-    <row r="250" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
         <v>242</v>
       </c>
@@ -35205,7 +35205,7 @@
         <v>12518</v>
       </c>
     </row>
-    <row r="251" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
         <v>242</v>
       </c>
@@ -35336,7 +35336,7 @@
         <v>19700</v>
       </c>
     </row>
-    <row r="252" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
         <v>242</v>
       </c>
@@ -35467,7 +35467,7 @@
         <v>15687</v>
       </c>
     </row>
-    <row r="253" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
         <v>297</v>
       </c>
@@ -35598,7 +35598,7 @@
         <v>46499</v>
       </c>
     </row>
-    <row r="254" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
         <v>297</v>
       </c>
@@ -35729,7 +35729,7 @@
         <v>24051</v>
       </c>
     </row>
-    <row r="255" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
         <v>297</v>
       </c>
@@ -35860,7 +35860,7 @@
         <v>9938</v>
       </c>
     </row>
-    <row r="256" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
         <v>297</v>
       </c>
@@ -35991,7 +35991,7 @@
         <v>21603</v>
       </c>
     </row>
-    <row r="257" spans="1:48" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:48" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="19" t="s">
         <v>297</v>
       </c>
@@ -36127,7 +36127,7 @@
       <c r="AU257" s="20"/>
       <c r="AV257" s="20"/>
     </row>
-    <row r="258" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
         <v>297</v>
       </c>
@@ -36258,7 +36258,7 @@
         <v>20745</v>
       </c>
     </row>
-    <row r="259" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
         <v>297</v>
       </c>
@@ -36389,7 +36389,7 @@
         <v>7952</v>
       </c>
     </row>
-    <row r="260" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
         <v>297</v>
       </c>
@@ -36520,7 +36520,7 @@
         <v>7940</v>
       </c>
     </row>
-    <row r="261" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
         <v>297</v>
       </c>
@@ -36651,7 +36651,7 @@
         <v>22184</v>
       </c>
     </row>
-    <row r="262" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
         <v>297</v>
       </c>
@@ -36782,7 +36782,7 @@
         <v>11929</v>
       </c>
     </row>
-    <row r="263" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
         <v>297</v>
       </c>
@@ -36913,7 +36913,7 @@
         <v>15396</v>
       </c>
     </row>
-    <row r="264" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
         <v>297</v>
       </c>
@@ -37044,7 +37044,7 @@
         <v>33042</v>
       </c>
     </row>
-    <row r="265" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
         <v>297</v>
       </c>
@@ -37175,7 +37175,7 @@
         <v>22362</v>
       </c>
     </row>
-    <row r="266" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
         <v>297</v>
       </c>
@@ -37306,7 +37306,7 @@
         <v>11634</v>
       </c>
     </row>
-    <row r="267" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
         <v>297</v>
       </c>
@@ -37437,7 +37437,7 @@
         <v>7396</v>
       </c>
     </row>
-    <row r="268" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
         <v>297</v>
       </c>
@@ -37568,7 +37568,7 @@
         <v>9068</v>
       </c>
     </row>
-    <row r="269" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
         <v>297</v>
       </c>
@@ -37699,7 +37699,7 @@
         <v>7290</v>
       </c>
     </row>
-    <row r="270" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
         <v>297</v>
       </c>
@@ -37830,7 +37830,7 @@
         <v>29880</v>
       </c>
     </row>
-    <row r="271" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
         <v>297</v>
       </c>
@@ -37961,7 +37961,7 @@
         <v>55662</v>
       </c>
     </row>
-    <row r="272" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
         <v>297</v>
       </c>
@@ -38092,7 +38092,7 @@
         <v>6379</v>
       </c>
     </row>
-    <row r="273" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
         <v>297</v>
       </c>
@@ -38223,7 +38223,7 @@
         <v>22039</v>
       </c>
     </row>
-    <row r="274" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
         <v>297</v>
       </c>
@@ -38354,7 +38354,7 @@
         <v>25198</v>
       </c>
     </row>
-    <row r="275" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
         <v>297</v>
       </c>
@@ -38485,7 +38485,7 @@
         <v>12022</v>
       </c>
     </row>
-    <row r="276" spans="1:48" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:48" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="19" t="s">
         <v>297</v>
       </c>
@@ -38621,7 +38621,7 @@
       <c r="AU276" s="20"/>
       <c r="AV276" s="20"/>
     </row>
-    <row r="277" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
         <v>297</v>
       </c>
@@ -38752,7 +38752,7 @@
         <v>12801</v>
       </c>
     </row>
-    <row r="278" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
         <v>297</v>
       </c>
@@ -38883,7 +38883,7 @@
         <v>228212</v>
       </c>
     </row>
-    <row r="279" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
         <v>297</v>
       </c>
@@ -39014,7 +39014,7 @@
         <v>13835</v>
       </c>
     </row>
-    <row r="280" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
         <v>297</v>
       </c>
@@ -39145,7 +39145,7 @@
         <v>10438</v>
       </c>
     </row>
-    <row r="281" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
         <v>297</v>
       </c>
@@ -39276,7 +39276,7 @@
         <v>18582</v>
       </c>
     </row>
-    <row r="282" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
         <v>297</v>
       </c>
@@ -39407,7 +39407,7 @@
         <v>32115</v>
       </c>
     </row>
-    <row r="283" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
         <v>297</v>
       </c>
@@ -39538,7 +39538,7 @@
         <v>23004</v>
       </c>
     </row>
-    <row r="284" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
         <v>297</v>
       </c>
@@ -39669,7 +39669,7 @@
         <v>50205</v>
       </c>
     </row>
-    <row r="285" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
         <v>330</v>
       </c>
@@ -39800,7 +39800,7 @@
         <v>5397</v>
       </c>
     </row>
-    <row r="286" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
         <v>330</v>
       </c>
@@ -39931,7 +39931,7 @@
         <v>13949</v>
       </c>
     </row>
-    <row r="287" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
         <v>330</v>
       </c>
@@ -40062,7 +40062,7 @@
         <v>8982</v>
       </c>
     </row>
-    <row r="288" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
         <v>330</v>
       </c>
@@ -40193,7 +40193,7 @@
         <v>15702</v>
       </c>
     </row>
-    <row r="289" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
         <v>330</v>
       </c>
@@ -40324,7 +40324,7 @@
         <v>35313</v>
       </c>
     </row>
-    <row r="290" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
         <v>330</v>
       </c>
@@ -40455,7 +40455,7 @@
         <v>18267</v>
       </c>
     </row>
-    <row r="291" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
         <v>330</v>
       </c>
@@ -40583,7 +40583,7 @@
         <v>6854</v>
       </c>
     </row>
-    <row r="292" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
         <v>330</v>
       </c>
@@ -40714,7 +40714,7 @@
         <v>17904</v>
       </c>
     </row>
-    <row r="293" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
         <v>330</v>
       </c>
@@ -40845,7 +40845,7 @@
         <v>18706</v>
       </c>
     </row>
-    <row r="294" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
         <v>330</v>
       </c>
@@ -40976,7 +40976,7 @@
         <v>33374</v>
       </c>
     </row>
-    <row r="295" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
         <v>330</v>
       </c>
@@ -41107,7 +41107,7 @@
         <v>30164</v>
       </c>
     </row>
-    <row r="296" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
         <v>330</v>
       </c>
@@ -41238,7 +41238,7 @@
         <v>132345</v>
       </c>
     </row>
-    <row r="297" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
         <v>336</v>
       </c>
@@ -41369,7 +41369,7 @@
         <v>37998</v>
       </c>
     </row>
-    <row r="298" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>336</v>
       </c>
@@ -41500,7 +41500,7 @@
         <v>30955</v>
       </c>
     </row>
-    <row r="299" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
         <v>336</v>
       </c>
@@ -41631,7 +41631,7 @@
         <v>39467</v>
       </c>
     </row>
-    <row r="300" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
         <v>336</v>
       </c>
@@ -41762,7 +41762,7 @@
         <v>5124</v>
       </c>
     </row>
-    <row r="301" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
         <v>336</v>
       </c>
@@ -41893,7 +41893,7 @@
         <v>12354</v>
       </c>
     </row>
-    <row r="302" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
         <v>336</v>
       </c>
@@ -42024,7 +42024,7 @@
         <v>4438</v>
       </c>
     </row>
-    <row r="303" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
         <v>336</v>
       </c>
@@ -42155,7 +42155,7 @@
         <v>3636</v>
       </c>
     </row>
-    <row r="304" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
         <v>336</v>
       </c>
@@ -42286,7 +42286,7 @@
         <v>11537</v>
       </c>
     </row>
-    <row r="305" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
         <v>336</v>
       </c>
@@ -42417,7 +42417,7 @@
         <v>12019</v>
       </c>
     </row>
-    <row r="306" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
         <v>336</v>
       </c>
@@ -42548,7 +42548,7 @@
         <v>15232</v>
       </c>
     </row>
-    <row r="307" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
         <v>336</v>
       </c>
@@ -42679,7 +42679,7 @@
         <v>3631</v>
       </c>
     </row>
-    <row r="308" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>336</v>
       </c>
@@ -42810,7 +42810,7 @@
         <v>8119</v>
       </c>
     </row>
-    <row r="309" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
         <v>336</v>
       </c>
@@ -42941,7 +42941,7 @@
         <v>15642</v>
       </c>
     </row>
-    <row r="310" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>336</v>
       </c>
@@ -43072,7 +43072,7 @@
         <v>15801</v>
       </c>
     </row>
-    <row r="311" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
         <v>336</v>
       </c>
@@ -43203,7 +43203,7 @@
         <v>15154</v>
       </c>
     </row>
-    <row r="312" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
         <v>336</v>
       </c>
@@ -43334,7 +43334,7 @@
         <v>140080</v>
       </c>
     </row>
-    <row r="313" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
         <v>336</v>
       </c>
@@ -43465,7 +43465,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="314" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
         <v>336</v>
       </c>
@@ -43596,7 +43596,7 @@
         <v>174918</v>
       </c>
     </row>
-    <row r="315" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
         <v>336</v>
       </c>
@@ -43727,7 +43727,7 @@
         <v>8772</v>
       </c>
     </row>
-    <row r="316" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
         <v>336</v>
       </c>
@@ -43858,7 +43858,7 @@
         <v>37759</v>
       </c>
     </row>
-    <row r="317" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>336</v>
       </c>
@@ -43989,7 +43989,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="318" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>336</v>
       </c>
@@ -44120,7 +44120,7 @@
         <v>19632</v>
       </c>
     </row>
-    <row r="319" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
         <v>336</v>
       </c>
@@ -44251,7 +44251,7 @@
         <v>11114</v>
       </c>
     </row>
-    <row r="320" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
         <v>336</v>
       </c>
@@ -44382,7 +44382,7 @@
         <v>5957</v>
       </c>
     </row>
-    <row r="321" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
         <v>336</v>
       </c>
@@ -44513,7 +44513,7 @@
         <v>21481</v>
       </c>
     </row>
-    <row r="322" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
         <v>336</v>
       </c>
@@ -44644,7 +44644,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="323" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>336</v>
       </c>
@@ -44775,7 +44775,7 @@
         <v>9128</v>
       </c>
     </row>
-    <row r="324" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
         <v>336</v>
       </c>
@@ -44906,7 +44906,7 @@
         <v>13154</v>
       </c>
     </row>
-    <row r="325" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
         <v>336</v>
       </c>
@@ -45037,7 +45037,7 @@
         <v>7699</v>
       </c>
     </row>
-    <row r="326" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
         <v>336</v>
       </c>
@@ -45168,7 +45168,7 @@
         <v>9721</v>
       </c>
     </row>
-    <row r="327" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
         <v>373</v>
       </c>
@@ -45299,7 +45299,7 @@
         <v>21890</v>
       </c>
     </row>
-    <row r="328" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
         <v>373</v>
       </c>
@@ -45430,7 +45430,7 @@
         <v>6209</v>
       </c>
     </row>
-    <row r="329" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
         <v>373</v>
       </c>
@@ -45561,7 +45561,7 @@
         <v>4253</v>
       </c>
     </row>
-    <row r="330" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
         <v>373</v>
       </c>
@@ -45692,7 +45692,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="331" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
         <v>373</v>
       </c>
@@ -45823,7 +45823,7 @@
         <v>52542</v>
       </c>
     </row>
-    <row r="332" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
         <v>373</v>
       </c>
@@ -45954,7 +45954,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="333" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
         <v>373</v>
       </c>
@@ -46085,7 +46085,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="334" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
         <v>373</v>
       </c>
@@ -46216,7 +46216,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="335" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
         <v>373</v>
       </c>
@@ -46347,7 +46347,7 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="336" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
         <v>373</v>
       </c>
@@ -46478,7 +46478,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="337" spans="1:48" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:48" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="16" t="s">
         <v>383</v>
       </c>
@@ -46612,7 +46612,7 @@
       <c r="AU337" s="15"/>
       <c r="AV337" s="15"/>
     </row>
-    <row r="338" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
         <v>383</v>
       </c>
@@ -46743,7 +46743,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="339" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
         <v>383</v>
       </c>
@@ -46874,7 +46874,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="340" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
         <v>383</v>
       </c>
@@ -47005,7 +47005,7 @@
         <v>21392</v>
       </c>
     </row>
-    <row r="341" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
         <v>383</v>
       </c>
@@ -47136,7 +47136,7 @@
         <v>6183</v>
       </c>
     </row>
-    <row r="342" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
         <v>383</v>
       </c>
@@ -47267,7 +47267,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="343" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
         <v>383</v>
       </c>
@@ -47398,7 +47398,7 @@
         <v>121321</v>
       </c>
     </row>
-    <row r="344" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
         <v>383</v>
       </c>
@@ -47529,7 +47529,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="345" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
         <v>383</v>
       </c>
@@ -47660,7 +47660,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="346" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
         <v>383</v>
       </c>
@@ -47791,7 +47791,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="347" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
         <v>383</v>
       </c>

--- a/raw_data/2019/DATABASE E-GOVERNMENT.xlsx
+++ b/raw_data/2019/DATABASE E-GOVERNMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/e-gov-index/raw_data/2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1172" documentId="6_{4A70EAC4-C3B4-4950-91FC-923EC42DAEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35C8E800-3C8F-4FB4-BE22-BE9F4D41997C}"/>
+  <xr:revisionPtr revIDLastSave="1174" documentId="6_{4A70EAC4-C3B4-4950-91FC-923EC42DAEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6194F933-104A-4A26-9466-1D73F2D478FA}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2184,7 +2184,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S104" sqref="S104"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
